--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2871560.821306263</v>
+        <v>2975740.455757334</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>96.33842426846238</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.96122915360942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>28.33530928504326</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>1.150146252006227</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>74.22494303711946</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>96.42217904608353</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>78.92424093294954</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>279.0440125622328</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>291.5513026132466</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>92.47445699814261</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>258.2317318494237</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.65115569188834</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>59.968388021846</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>19.86507844888302</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>208.2078751493921</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.74993283584276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>67.00771475394413</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>193.776338013062</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>31.40247677523006</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.3196045412455</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>24.8326660635311</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.740039342104</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>168.3381167077338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>75.75905456204198</v>
       </c>
       <c r="I37" t="n">
-        <v>40.9610540507643</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.4765410832877</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>121.0116223990579</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>83.44729448253425</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.8913819999737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.35059460820252</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855437</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855437</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>2144.895377947846</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.0764108006831</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>392.1402278727762</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>242.0235884604405</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915318</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915318</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709431</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.50700567247</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="X4" t="n">
-        <v>963.517454774453</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.7248756309228</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796252</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796252</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>563.5047572728747</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>563.5047572728747</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>556.5592565236713</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>141.4868063686677</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1847.573092600665</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1655.887208427491</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1434.120592997017</v>
       </c>
       <c r="U7" t="n">
-        <v>1333.834836463796</v>
+        <v>1434.120592997017</v>
       </c>
       <c r="V7" t="n">
-        <v>1079.150348257909</v>
+        <v>1434.120592997017</v>
       </c>
       <c r="W7" t="n">
-        <v>789.7331782209488</v>
+        <v>1144.703422960057</v>
       </c>
       <c r="X7" t="n">
-        <v>789.7331782209488</v>
+        <v>1144.703422960057</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>923.9108438165264</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4802,7 +4804,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,13 +4816,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4884,16 +4886,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445191</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1163.171458061136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>908.4869698552495</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>619.069799818289</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>619.069799818289</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239598</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703119</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,31 +5764,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>3192.420589669524</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.148592041074</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>4403.547127064016</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>4114.471900408214</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V22" t="n">
-        <v>4114.471900408214</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371253</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473235</v>
+        <v>3192.420589669524</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329705</v>
+        <v>3192.420589669524</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L24" t="n">
-        <v>2716.927329289434</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>3314.305816915985</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>3941.903780470592</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>516.5309703533136</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6181,16 +6183,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.19898568143</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>4503.800315021996</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2216.543602719426</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1996.942137742368</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.866911086565</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1707.866911086565</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1418.449741049605</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1190.460190151587</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.6676110080573</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6458,28 +6460,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6488,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.224490384402</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C31" t="n">
-        <v>2856.288307456495</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456495</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874102</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376192</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4453.748946926011</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4234.147481948952</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3945.07225529315</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3945.07225529315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3655.65508525619</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3427.665534358172</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3206.872955214642</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,13 +6715,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333971</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>3475.706650960523</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796738</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868831</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456495</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874102</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376192</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.932614305899</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650097</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.17289944421</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.755729407249</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3577.782173770508</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626978</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192548</v>
@@ -6938,49 +6940,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.955258982919</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C37" t="n">
-        <v>889.0190760550122</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D37" t="n">
-        <v>738.9024366426764</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E37" t="n">
-        <v>590.9893430602833</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="F37" t="n">
-        <v>444.0993955623729</v>
+        <v>337.5370598705081</v>
       </c>
       <c r="G37" t="n">
-        <v>276.9032962772529</v>
+        <v>170.340960585388</v>
       </c>
       <c r="H37" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7159,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694706</v>
@@ -7202,7 +7204,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273902</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589092</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7333,49 +7335,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7430,22 +7432,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289433</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3212.252935505192</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3839.850899059798</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950412</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2940.578503903499</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>2856.288307456495</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456495</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874102</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018134</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812247</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775286</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3343.019547877269</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3122.226968733739</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7664,34 +7666,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400667</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400667</v>
+        <v>814.4041655335323</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>664.2875261211965</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>516.3744325388034</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>369.484485040893</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510504</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854702</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648815</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611854</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138365</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703064</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5956654067395</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>107.2784330767818</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>61.4007578696825</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>78.31512318719894</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.834720516252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.0185712477005</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.93331737597515</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>115.0314858713391</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.3900508477917</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28624665954055</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>12.68816929391076</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>64.53565828418188</v>
       </c>
       <c r="I37" t="n">
-        <v>40.30478226780123</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.35543909864957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>165.5113759375331</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>83.79952661609359</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.72409101823865</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1735436840663</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739850.7069512763</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820632</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="D4" t="n">
-        <v>93403.78684820638</v>
-      </c>
       <c r="E4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26442,19 +26444,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-832196.9687525511</v>
       </c>
       <c r="C6" t="n">
-        <v>496547.7769750409</v>
+        <v>496547.776975041</v>
       </c>
       <c r="D6" t="n">
         <v>496547.7769750415</v>
       </c>
       <c r="E6" t="n">
-        <v>245322.8660283875</v>
+        <v>245322.8660283881</v>
       </c>
       <c r="F6" t="n">
         <v>570735.3278357433</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.3278357438</v>
+        <v>570735.3278357437</v>
       </c>
       <c r="H6" t="n">
-        <v>570735.3278357439</v>
+        <v>570735.3278357431</v>
       </c>
       <c r="I6" t="n">
         <v>570735.3278357438</v>
       </c>
       <c r="J6" t="n">
-        <v>353204.1254384657</v>
+        <v>353204.1254384661</v>
       </c>
       <c r="K6" t="n">
         <v>570735.3278357437</v>
       </c>
       <c r="L6" t="n">
-        <v>570735.3278357435</v>
+        <v>570735.3278357437</v>
       </c>
       <c r="M6" t="n">
-        <v>485680.2999002317</v>
+        <v>485680.2999002315</v>
       </c>
       <c r="N6" t="n">
+        <v>570735.3278357434</v>
+      </c>
+      <c r="O6" t="n">
         <v>570735.3278357433</v>
       </c>
-      <c r="O6" t="n">
-        <v>570735.3278357435</v>
-      </c>
       <c r="P6" t="n">
-        <v>570735.3278357432</v>
+        <v>570735.3278357434</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>286.3954173950182</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>275.7218124670735</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>118.0986533615259</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>224.5595091370309</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>220.382821350201</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>289.8157596099701</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>10.00791173709779</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.16782564338007</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>63.13173900743635</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>235.2778014719923</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>27.9801063561892</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30232,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30520,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30706,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30897,7 +30899,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>560.1612034965799</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>150.2061940096322</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,7 +31867,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>687.9583686879455</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238272</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>342.8454457931495</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>434.1786358382025</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143572</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>489.2891832783074</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>565.6398038246471</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>161.7871425275307</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33976,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>537.2623544349631</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>418.0271695745616</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>18.86448192629892</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>545.8243347659271</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>213.2742757378057</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>205.0040068187905</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>291.5823913937581</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>171.212305634483</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949741</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>434.2980917413138</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>23.94570355317167</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>394.6661099905186</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315843</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2975740.455757334</v>
+        <v>2971727.845743341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.33842426846238</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>394.2071006265883</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>218.1043346164859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>1.150146252006227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>261.2100966413622</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>96.42217904608353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>78.92424093294954</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>291.5513026132466</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>121.1059660434834</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847859</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487899</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>42.7157213271124</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>19.86507844888302</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>208.2078751493921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>193.776338013062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>31.40247677523006</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>24.8326660635311</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.2811815126418742</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>247.2924896597634</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.92158678358339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>75.75905456204198</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>121.0116223990579</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>121.8000472740351</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.35059460820252</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923657</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.034709923657</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.895377947846</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.697475415546</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.280305378586</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.11854148767</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.11348746897</v>
+        <v>2609.016021139988</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1847.573092600665</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1655.887208427491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1434.120592997017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1434.120592997017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1434.120592997017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.703422960057</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1144.703422960057</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>923.9108438165264</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>528.4218742137286</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5296,31 +5296,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>255.5942300127263</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>113.8823988549244</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3192.420589669524</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3192.420589669524</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3192.420589669524</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>666.6476097656493</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>516.5309703533136</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.679061850319</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6478,25 +6478,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.3929232910542</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>782.4567403631473</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.3401009508116</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.4270073684185</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>337.5370598705081</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>170.340960585388</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.240688199802</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.823518162841</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.833967264824</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.041388121294</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>363.7369613277359</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7715,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3403484614391</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4041655335323</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>664.2875261211965</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3744325388034</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>369.484485040893</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>61.4007578696825</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>78.31512318719894</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>31.93331737597515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>115.0314858713391</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.09406519747981</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>38.89198472948075</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>64.53565828418188</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.5113759375331</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>24.63391537253403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1735436840663</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.967965428979369e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26444,7 +26444,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832196.9687525511</v>
+        <v>-832196.9687525514</v>
       </c>
       <c r="C6" t="n">
         <v>496547.776975041</v>
       </c>
       <c r="D6" t="n">
-        <v>496547.7769750415</v>
+        <v>496547.7769750413</v>
       </c>
       <c r="E6" t="n">
-        <v>245322.8660283881</v>
+        <v>244975.4867740314</v>
       </c>
       <c r="F6" t="n">
-        <v>570735.3278357433</v>
+        <v>570387.9485813864</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.3278357437</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="H6" t="n">
-        <v>570735.3278357431</v>
+        <v>570387.9485813865</v>
       </c>
       <c r="I6" t="n">
-        <v>570735.3278357438</v>
+        <v>570387.9485813865</v>
       </c>
       <c r="J6" t="n">
-        <v>353204.1254384661</v>
+        <v>352856.7461841091</v>
       </c>
       <c r="K6" t="n">
-        <v>570735.3278357437</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="L6" t="n">
-        <v>570735.3278357437</v>
+        <v>570387.9485813866</v>
       </c>
       <c r="M6" t="n">
-        <v>485680.2999002315</v>
+        <v>485332.9206458748</v>
       </c>
       <c r="N6" t="n">
-        <v>570735.3278357434</v>
+        <v>570387.9485813865</v>
       </c>
       <c r="O6" t="n">
-        <v>570735.3278357433</v>
+        <v>570387.9485813869</v>
       </c>
       <c r="P6" t="n">
-        <v>570735.3278357434</v>
+        <v>570387.9485813866</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,16 +26977,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.3954173950182</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>68.10750358912699</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>224.5595091370309</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>121.5237450221184</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.8157596099701</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.00791173709779</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>63.13173900743635</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>289.8157596099701</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>83.3252282894418</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>150.2061940096322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>287.9685048518522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>18.86448192629892</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>171.212305634483</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>150.1270658774932</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315843</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2971727.845743341</v>
+        <v>2973488.376046128</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483583</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>394.2071006265883</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>218.1043346164859</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>204.1149264341229</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.2100966413622</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>78.35381101375914</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>121.1059660434834</v>
+        <v>61.03068881011993</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>6.380068175847859</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>42.7157213271124</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.8723798708789</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2811815126418742</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>98.7489785493142</v>
       </c>
       <c r="U31" t="n">
-        <v>247.2924896597634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>102.3739644559489</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796256</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796256</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>921.7704558796256</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1706.987139384971</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1452.302651179084</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1162.885481142124</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>934.8959302441062</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y4" t="n">
-        <v>714.1033511005761</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3246.46055795891</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3040.482810343132</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139988</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>2609.016021139988</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033361</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>939.4077790033361</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E8" t="n">
-        <v>939.4077790033361</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="F8" t="n">
-        <v>528.4218742137286</v>
+        <v>170.1561756069772</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.8928126690276</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>72.95662974112065</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992673</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597677</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299522</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>739.204351886422</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5430,10 +5430,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6135,13 +6135,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.679061850319</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.824227505223</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.222762528164</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U31" t="n">
-        <v>1794.716390662386</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7730,16 +7730,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>122.8084169651565</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>43.26526345294911</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.09406519747981</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.6564717779741</v>
       </c>
       <c r="U31" t="n">
-        <v>38.89198472948075</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>115.0314858713394</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
@@ -26337,25 +26337,25 @@
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
         <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832196.9687525514</v>
+        <v>-832196.9687525511</v>
       </c>
       <c r="C6" t="n">
-        <v>496547.776975041</v>
+        <v>496547.7769750414</v>
       </c>
       <c r="D6" t="n">
-        <v>496547.7769750413</v>
+        <v>496547.7769750414</v>
       </c>
       <c r="E6" t="n">
-        <v>244975.4867740314</v>
+        <v>245288.1281029523</v>
       </c>
       <c r="F6" t="n">
-        <v>570387.9485813864</v>
+        <v>570700.5899103081</v>
       </c>
       <c r="G6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="H6" t="n">
-        <v>570387.9485813865</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="I6" t="n">
-        <v>570387.9485813865</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="J6" t="n">
-        <v>352856.7461841091</v>
+        <v>353169.3875130301</v>
       </c>
       <c r="K6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="L6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.5899103078</v>
       </c>
       <c r="M6" t="n">
-        <v>485332.9206458748</v>
+        <v>485645.5619747961</v>
       </c>
       <c r="N6" t="n">
-        <v>570387.9485813865</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="O6" t="n">
-        <v>570387.9485813869</v>
+        <v>570700.5899103082</v>
       </c>
       <c r="P6" t="n">
-        <v>570387.9485813866</v>
+        <v>570700.589910308</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512231</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>12.66894511512317</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>68.10750358912699</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.5237450221184</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>30.83395077441669</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>289.8157596099701</v>
+        <v>349.8910368433335</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992096</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
